--- a/src/main/resources/TempSFDV.xlsx
+++ b/src/main/resources/TempSFDV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C++\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TimeTableAutoCreater\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>안현수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,50 @@
   </si>
   <si>
     <t>장보현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안현수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임채홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,13 +222,35 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,17 +262,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,15 +561,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -503,8 +579,33 @@
       <c r="C1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1">
+        <f>COUNT(C1:C44)</f>
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -514,8 +615,32 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -525,8 +650,26 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -536,8 +679,26 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -547,8 +708,14 @@
       <c r="C5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -559,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -570,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -581,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -592,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -603,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -614,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -625,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -636,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -647,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -658,7 +825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>

--- a/src/main/resources/TempSFDV.xlsx
+++ b/src/main/resources/TempSFDV.xlsx
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
-  <si>
-    <t>안현수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안현수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>임채홍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,37 +549,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1">
         <f>COUNT(C1:C44)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G1">
         <v>7</v>
       </c>
+      <c r="H1" s="1">
+        <f>COUNT(G1:G7)</f>
+        <v>5</v>
+      </c>
       <c r="I1">
         <v>1</v>
       </c>
@@ -599,13 +591,17 @@
         <v>1</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1">
+        <f>COUNTA(L1:L41)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -613,16 +609,16 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -634,24 +630,24 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -663,24 +659,24 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -692,65 +688,67 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
         <v>33</v>
       </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -759,9 +757,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -770,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -781,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -789,10 +787,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -800,10 +798,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -814,34 +812,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -849,10 +847,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -860,10 +858,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -871,10 +869,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -882,10 +880,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -893,10 +891,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -904,10 +902,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -915,10 +913,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -926,45 +924,12 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28">
         <v>2</v>
       </c>
     </row>
